--- a/public/sample.xlsx
+++ b/public/sample.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="390" yWindow="630" windowWidth="23340" windowHeight="9150"/>
   </bookViews>
   <sheets>
-    <sheet name="tweets" sheetId="1" r:id="rId4"/>
-    <sheet name="hashtag" sheetId="2" r:id="rId5"/>
-    <sheet name="say" sheetId="3" r:id="rId6"/>
+    <sheet name="tweets" sheetId="1" r:id="rId1"/>
+    <sheet name="hashtag" sheetId="2" r:id="rId2"/>
+    <sheet name="say" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Hakımızı yıllardır arıyoruz.</t>
   </si>
@@ -43,38 +42,33 @@
     <t>Mağdur olduk</t>
   </si>
   <si>
-    <t>KONUTZEDELER çözüm bekliyor.</t>
-  </si>
-  <si>
     <t>Neden  neden göz yumuldu.</t>
   </si>
   <si>
     <t>Neden devletim malımı korumuyor, beni ezdiriyor</t>
   </si>
   <si>
-    <t>Biz bu evleri almak için hayatımızı ortaya koyduk</t>
-  </si>
-  <si>
-    <t>biz kendimizi konutzede değil ‘terörzede’ olarak görüyoruz.</t>
-  </si>
-  <si>
     <t>Bu sorunun çözümü için devletten destek bekliyoruz</t>
   </si>
   <si>
-    <t>#yapi hakkımız olanı ver #paramızı geri ver #Maketten Evler Gerçek İnsanlar @RTerdogan @tccumhur @fyapı</t>
+    <t>#hashtag1 #hashtag2 #hashtag3 @kişi1 @kişi2</t>
+  </si>
+  <si>
+    <t>Çözüm bekliyoruz</t>
+  </si>
+  <si>
+    <t>Biz bu …. almak için hayatımızı ortaya koyduk</t>
+  </si>
+  <si>
+    <t>biz kendimiz i…. değil ‘terörzede’ olarak görüyoruz.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -85,31 +79,32 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -399,20 +394,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.7109375" customWidth="true" style="0"/>
-    <col min="2" max="2" width="28" customWidth="true" style="0"/>
+    <col min="1" max="1" width="56.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -449,90 +441,64 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="0" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="0" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
@@ -540,17 +506,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="0" orientation="portrait"/>
 </worksheet>
 </file>
--- a/public/sample.xlsx
+++ b/public/sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="630" windowWidth="23340" windowHeight="9150"/>
+    <workbookView xWindow="390" yWindow="630" windowWidth="23340" windowHeight="9150" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tweets" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>Bu sorunun çözümü için devletten destek bekliyoruz</t>
   </si>
   <si>
-    <t>#hashtag1 #hashtag2 #hashtag3 @kişi1 @kişi2</t>
-  </si>
-  <si>
     <t>Çözüm bekliyoruz</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>biz kendimiz i…. değil ‘terörzede’ olarak görüyoruz.</t>
+  </si>
+  <si>
+    <t>#hashtag #hashtag2 #hashtag3 @kişi1 @kişi2</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -441,7 +441,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -452,12 +452,12 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -474,15 +474,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
